--- a/Data/Test.xlsx
+++ b/Data/Test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ath331\Desktop\a\VisualStudio\C++\AtServerEngine\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF84679-3723-4C8D-8D32-59CB3E3CD87B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B046E0-58DA-4C7A-99B2-47BA4391AED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2235" yWindow="3525" windowWidth="28800" windowHeight="15885" xr2:uid="{63715C51-116E-4948-BF31-B1B087F565B5}"/>
+    <workbookView xWindow="44145" yWindow="-4110" windowWidth="32160" windowHeight="19305" xr2:uid="{63715C51-116E-4948-BF31-B1B087F565B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
@@ -38,10 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
-    <t>BagType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -50,26 +46,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EBagType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AtInt32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Equipment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Etc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Useable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>*SC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,10 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>가방 타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>비사용 여부</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -91,6 +67,29 @@
   </si>
   <si>
     <t>IsNonUse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EActorType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Player</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Npc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -560,59 +559,59 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.625" customWidth="1"/>
     <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
@@ -623,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
@@ -634,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
@@ -645,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.3"/>

--- a/Data/Test.xlsx
+++ b/Data/Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ath331\Desktop\a\VisualStudio\C++\AtServerEngine\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B046E0-58DA-4C7A-99B2-47BA4391AED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB968BAA-9528-4C7D-948B-62C39ADC0A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44145" yWindow="-4110" windowWidth="32160" windowHeight="19305" xr2:uid="{63715C51-116E-4948-BF31-B1B087F565B5}"/>
+    <workbookView xWindow="39465" yWindow="-3840" windowWidth="32160" windowHeight="19305" xr2:uid="{63715C51-116E-4948-BF31-B1B087F565B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>SC</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,10 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IsNonUse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -90,6 +86,34 @@
   </si>
   <si>
     <t>Npc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Disable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스트링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AtString</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가나다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마바사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아자차</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -556,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA4D16BC-F9B1-4F49-9440-843C48817A79}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -570,18 +594,21 @@
     <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>8</v>
+      <c r="D1" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -589,10 +616,13 @@
         <v>5</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -602,8 +632,11 @@
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -611,51 +644,57 @@
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>0</v>
       </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1</v>
       </c>
       <c r="B6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="3">
-        <v>0</v>
-      </c>
       <c r="C7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:3" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:3" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:3" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:3" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:3" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:3" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:3" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:3" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:4" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:4" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:4" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:4" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:4" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:4" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:4" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:4" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:4" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Test.xlsx
+++ b/Data/Test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ath331\Desktop\a\VisualStudio\C++\AtServerEngine\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB968BAA-9528-4C7D-948B-62C39ADC0A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26418251-35AA-4279-9270-4D6906168D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39465" yWindow="-3840" windowWidth="32160" windowHeight="19305" xr2:uid="{63715C51-116E-4948-BF31-B1B087F565B5}"/>
+    <workbookView xWindow="7275" yWindow="2805" windowWidth="28800" windowHeight="15885" xr2:uid="{63715C51-116E-4948-BF31-B1B087F565B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
@@ -583,7 +583,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
